--- a/data/single-cell/zeisel_2018/expanded.mmc3.xlsx
+++ b/data/single-cell/zeisel_2018/expanded.mmc3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/linhe_xu_vanderbilt_edu/Documents/Herculano_Lab/Projects/neuron-glia-dNdS/data/single-cell/zeisel_2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{F399EDFA-C1D6-2E4E-9C88-52D6AD18357C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B978D254-2624-CB4F-B301-E1038D7C0B6B}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{F399EDFA-C1D6-2E4E-9C88-52D6AD18357C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6838845-5D81-EA41-882E-58F932452644}"/>
   <bookViews>
     <workbookView xWindow="32380" yWindow="-9540" windowWidth="27780" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2924,10 +2924,10 @@
   <dimension ref="A1:J266"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D242" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D237" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C264" sqref="C264"/>
+      <selection pane="bottomRight" activeCell="F255" sqref="F255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10515,7 +10515,7 @@
         <v>34</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I255" s="13" t="s">
         <v>35</v>

--- a/data/single-cell/zeisel_2018/expanded.mmc3.xlsx
+++ b/data/single-cell/zeisel_2018/expanded.mmc3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/linhe_xu_vanderbilt_edu/Documents/Herculano_Lab/Projects/neuron-glia-dNdS/data/single-cell/zeisel_2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{F399EDFA-C1D6-2E4E-9C88-52D6AD18357C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6838845-5D81-EA41-882E-58F932452644}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{F399EDFA-C1D6-2E4E-9C88-52D6AD18357C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F4407D5-73C1-CE4D-A281-B1C99D021795}"/>
   <bookViews>
-    <workbookView xWindow="32380" yWindow="-9540" windowWidth="27780" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33180" yWindow="-2060" windowWidth="27780" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7571_0_celltypes_summary_leafor" sheetId="1" r:id="rId1"/>
@@ -2004,9 +2004,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>OBDOP</t>
-  </si>
-  <si>
     <t>Trinarization detects GABA</t>
   </si>
   <si>
@@ -2095,6 +2092,9 @@
   </si>
   <si>
     <t>endothelia</t>
+  </si>
+  <si>
+    <t>OBDOP1</t>
   </si>
 </sst>
 </file>
@@ -2924,10 +2924,10 @@
   <dimension ref="A1:J266"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D237" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F255" sqref="F255"/>
+      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2961,7 +2961,7 @@
         <v>596</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>2</v>
@@ -2993,10 +2993,10 @@
         <v>19</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>626</v>
@@ -3025,7 +3025,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>82</v>
@@ -3054,7 +3054,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>82</v>
@@ -3083,7 +3083,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>82</v>
@@ -3115,7 +3115,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>82</v>
@@ -3144,10 +3144,10 @@
         <v>19</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>185</v>
@@ -3173,7 +3173,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>82</v>
@@ -3205,10 +3205,10 @@
         <v>19</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="13" t="s">
@@ -3235,10 +3235,10 @@
         <v>19</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="13" t="s">
@@ -3265,10 +3265,10 @@
         <v>19</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>627</v>
@@ -3297,10 +3297,10 @@
         <v>19</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>625</v>
@@ -3329,10 +3329,10 @@
         <v>19</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>630</v>
@@ -3361,10 +3361,10 @@
         <v>19</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="13" t="s">
@@ -3391,10 +3391,10 @@
         <v>19</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="13" t="s">
@@ -3421,10 +3421,10 @@
         <v>19</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="13" t="s">
@@ -3451,10 +3451,10 @@
         <v>19</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>625</v>
@@ -3483,10 +3483,10 @@
         <v>19</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>625</v>
@@ -3515,10 +3515,10 @@
         <v>19</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="13" t="s">
@@ -3545,7 +3545,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>82</v>
@@ -3575,10 +3575,10 @@
         <v>19</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="13" t="s">
@@ -3605,7 +3605,7 @@
         <v>19</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>613</v>
@@ -3635,10 +3635,10 @@
         <v>19</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>629</v>
@@ -3667,7 +3667,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>613</v>
@@ -3699,7 +3699,7 @@
         <v>19</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>613</v>
@@ -3731,7 +3731,7 @@
         <v>19</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>82</v>
@@ -3761,7 +3761,7 @@
         <v>19</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>82</v>
@@ -3791,7 +3791,7 @@
         <v>19</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>94</v>
@@ -3821,7 +3821,7 @@
         <v>19</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>94</v>
@@ -3850,7 +3850,7 @@
         <v>19</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>94</v>
@@ -3879,7 +3879,7 @@
         <v>19</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>94</v>
@@ -3909,7 +3909,7 @@
         <v>19</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>94</v>
@@ -3938,7 +3938,7 @@
         <v>19</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>94</v>
@@ -3967,7 +3967,7 @@
         <v>78</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>86</v>
@@ -3999,7 +3999,7 @@
         <v>19</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>82</v>
@@ -4031,7 +4031,7 @@
         <v>19</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>86</v>
@@ -4061,7 +4061,7 @@
         <v>19</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>94</v>
@@ -4091,7 +4091,7 @@
         <v>19</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>94</v>
@@ -4120,7 +4120,7 @@
         <v>19</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>94</v>
@@ -4141,7 +4141,7 @@
         <v>515</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>18</v>
@@ -4150,7 +4150,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>94</v>
@@ -4182,7 +4182,7 @@
         <v>19</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>94</v>
@@ -4211,7 +4211,7 @@
         <v>19</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>94</v>
@@ -4241,7 +4241,7 @@
         <v>19</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>94</v>
@@ -4271,7 +4271,7 @@
         <v>19</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>94</v>
@@ -4301,7 +4301,7 @@
         <v>19</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>94</v>
@@ -4319,7 +4319,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>654</v>
+        <v>684</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>277</v>
@@ -4331,7 +4331,7 @@
         <v>19</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G46" s="25" t="s">
         <v>210</v>
@@ -4349,7 +4349,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>278</v>
@@ -4361,7 +4361,7 @@
         <v>19</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>94</v>
@@ -4391,7 +4391,7 @@
         <v>78</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>94</v>
@@ -4423,7 +4423,7 @@
         <v>78</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>94</v>
@@ -4453,7 +4453,7 @@
         <v>19</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>94</v>
@@ -4485,7 +4485,7 @@
         <v>19</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>614</v>
@@ -4515,7 +4515,7 @@
         <v>19</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>94</v>
@@ -4545,7 +4545,7 @@
         <v>19</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>614</v>
@@ -4577,7 +4577,7 @@
         <v>19</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>614</v>
@@ -4607,7 +4607,7 @@
         <v>19</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>614</v>
@@ -4637,7 +4637,7 @@
         <v>19</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>94</v>
@@ -4669,7 +4669,7 @@
         <v>19</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>94</v>
@@ -4699,7 +4699,7 @@
         <v>19</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>615</v>
@@ -4731,7 +4731,7 @@
         <v>19</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>615</v>
@@ -4763,7 +4763,7 @@
         <v>19</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>94</v>
@@ -4793,7 +4793,7 @@
         <v>19</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>615</v>
@@ -4825,7 +4825,7 @@
         <v>19</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>615</v>
@@ -4857,7 +4857,7 @@
         <v>19</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>94</v>
@@ -4887,7 +4887,7 @@
         <v>19</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>614</v>
@@ -4917,7 +4917,7 @@
         <v>19</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>94</v>
@@ -4947,7 +4947,7 @@
         <v>19</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>94</v>
@@ -4977,7 +4977,7 @@
         <v>19</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>94</v>
@@ -5009,7 +5009,7 @@
         <v>19</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>616</v>
@@ -5041,7 +5041,7 @@
         <v>78</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>616</v>
@@ -5073,7 +5073,7 @@
         <v>41</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>617</v>
@@ -5105,10 +5105,10 @@
         <v>41</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>642</v>
@@ -5137,10 +5137,10 @@
         <v>41</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>632</v>
@@ -5169,10 +5169,10 @@
         <v>41</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H73" s="15" t="s">
         <v>643</v>
@@ -5201,7 +5201,7 @@
         <v>78</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>86</v>
@@ -5231,7 +5231,7 @@
         <v>78</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>618</v>
@@ -5263,10 +5263,10 @@
         <v>46</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>632</v>
@@ -5295,7 +5295,7 @@
         <v>46</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>619</v>
@@ -5325,7 +5325,7 @@
         <v>46</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>619</v>
@@ -5355,10 +5355,10 @@
         <v>41</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H79" s="7" t="s">
         <v>625</v>
@@ -5387,10 +5387,10 @@
         <v>41</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>625</v>
@@ -5419,7 +5419,7 @@
         <v>41</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G81" s="15" t="s">
         <v>634</v>
@@ -5451,10 +5451,10 @@
         <v>41</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="13" t="s">
@@ -5481,10 +5481,10 @@
         <v>41</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>632</v>
@@ -5513,7 +5513,7 @@
         <v>19</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>94</v>
@@ -5543,7 +5543,7 @@
         <v>19</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>94</v>
@@ -5573,7 +5573,7 @@
         <v>78</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>614</v>
@@ -5603,7 +5603,7 @@
         <v>78</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>94</v>
@@ -5633,13 +5633,13 @@
         <v>78</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>618</v>
       </c>
       <c r="H88" s="25" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I88" s="13" t="s">
         <v>315</v>
@@ -5665,7 +5665,7 @@
         <v>78</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>86</v>
@@ -5697,7 +5697,7 @@
         <v>78</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>618</v>
@@ -5729,7 +5729,7 @@
         <v>46</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>94</v>
@@ -5759,7 +5759,7 @@
         <v>78</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>94</v>
@@ -5789,7 +5789,7 @@
         <v>78</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>94</v>
@@ -5819,7 +5819,7 @@
         <v>78</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>94</v>
@@ -5849,7 +5849,7 @@
         <v>78</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>86</v>
@@ -5879,7 +5879,7 @@
         <v>78</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>618</v>
@@ -5909,7 +5909,7 @@
         <v>78</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>86</v>
@@ -5939,7 +5939,7 @@
         <v>67</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>94</v>
@@ -5969,7 +5969,7 @@
         <v>67</v>
       </c>
       <c r="F99" s="24" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G99" s="25" t="s">
         <v>620</v>
@@ -6001,7 +6001,7 @@
         <v>67</v>
       </c>
       <c r="F100" s="24" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G100" s="25" t="s">
         <v>621</v>
@@ -6033,7 +6033,7 @@
         <v>67</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>94</v>
@@ -6063,7 +6063,7 @@
         <v>67</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G102" s="7" t="s">
         <v>94</v>
@@ -6093,7 +6093,7 @@
         <v>67</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>94</v>
@@ -6123,7 +6123,7 @@
         <v>67</v>
       </c>
       <c r="F104" s="24" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G104" s="25" t="s">
         <v>621</v>
@@ -6153,7 +6153,7 @@
         <v>67</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>94</v>
@@ -6183,7 +6183,7 @@
         <v>67</v>
       </c>
       <c r="F106" s="24" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G106" s="25" t="s">
         <v>621</v>
@@ -6213,7 +6213,7 @@
         <v>41</v>
       </c>
       <c r="F107" s="24" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G107" s="25" t="s">
         <v>621</v>
@@ -6245,7 +6245,7 @@
         <v>67</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>621</v>
@@ -6277,7 +6277,7 @@
         <v>67</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>86</v>
@@ -6307,7 +6307,7 @@
         <v>67</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>86</v>
@@ -6337,7 +6337,7 @@
         <v>67</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>86</v>
@@ -6367,7 +6367,7 @@
         <v>67</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>618</v>
@@ -6397,7 +6397,7 @@
         <v>67</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>86</v>
@@ -6427,7 +6427,7 @@
         <v>67</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>86</v>
@@ -6457,7 +6457,7 @@
         <v>67</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>86</v>
@@ -6487,7 +6487,7 @@
         <v>67</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G116" s="7" t="s">
         <v>86</v>
@@ -6519,7 +6519,7 @@
         <v>67</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G117" s="7" t="s">
         <v>86</v>
@@ -6549,7 +6549,7 @@
         <v>67</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>86</v>
@@ -6579,7 +6579,7 @@
         <v>41</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>86</v>
@@ -6609,7 +6609,7 @@
         <v>41</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G120" s="7" t="s">
         <v>618</v>
@@ -6641,7 +6641,7 @@
         <v>41</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>618</v>
@@ -6671,7 +6671,7 @@
         <v>46</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>86</v>
@@ -6701,7 +6701,7 @@
         <v>46</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>86</v>
@@ -6731,7 +6731,7 @@
         <v>46</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>86</v>
@@ -6761,7 +6761,7 @@
         <v>46</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>86</v>
@@ -6793,7 +6793,7 @@
         <v>46</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>86</v>
@@ -6822,7 +6822,7 @@
         <v>46</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>618</v>
@@ -6851,7 +6851,7 @@
         <v>46</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>618</v>
@@ -6883,7 +6883,7 @@
         <v>46</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>618</v>
@@ -6912,7 +6912,7 @@
         <v>46</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>86</v>
@@ -6942,7 +6942,7 @@
         <v>46</v>
       </c>
       <c r="F131" s="24" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G131" s="25" t="s">
         <v>226</v>
@@ -6971,7 +6971,7 @@
         <v>46</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>86</v>
@@ -7000,7 +7000,7 @@
         <v>46</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>86</v>
@@ -7030,7 +7030,7 @@
         <v>46</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>618</v>
@@ -7059,10 +7059,10 @@
         <v>19</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H135" s="7"/>
       <c r="I135" s="13" t="s">
@@ -7089,10 +7089,10 @@
         <v>78</v>
       </c>
       <c r="F136" s="24" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G136" s="25" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H136" s="4" t="s">
         <v>645</v>
@@ -7121,10 +7121,10 @@
         <v>41</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H137" s="7"/>
       <c r="I137" s="13" t="s">
@@ -7151,10 +7151,10 @@
         <v>78</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I138" s="13" t="s">
         <v>313</v>
@@ -7180,10 +7180,10 @@
         <v>78</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H139" s="7" t="s">
         <v>638</v>
@@ -7212,7 +7212,7 @@
         <v>78</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>86</v>
@@ -7241,10 +7241,10 @@
         <v>78</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I141" s="13" t="s">
         <v>313</v>
@@ -7270,7 +7270,7 @@
         <v>46</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>94</v>
@@ -7300,7 +7300,7 @@
         <v>46</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>614</v>
@@ -7330,7 +7330,7 @@
         <v>46</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>614</v>
@@ -7359,7 +7359,7 @@
         <v>46</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>94</v>
@@ -7391,7 +7391,7 @@
         <v>46</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>94</v>
@@ -7421,7 +7421,7 @@
         <v>46</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>94</v>
@@ -7453,7 +7453,7 @@
         <v>46</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>94</v>
@@ -7483,7 +7483,7 @@
         <v>46</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>614</v>
@@ -7513,7 +7513,7 @@
         <v>46</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>94</v>
@@ -7543,7 +7543,7 @@
         <v>41</v>
       </c>
       <c r="F151" s="24" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G151" s="25" t="s">
         <v>621</v>
@@ -7573,7 +7573,7 @@
         <v>46</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G152" s="4" t="s">
         <v>94</v>
@@ -7603,7 +7603,7 @@
         <v>78</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>94</v>
@@ -7633,7 +7633,7 @@
         <v>19</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>94</v>
@@ -7663,7 +7663,7 @@
         <v>46</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>94</v>
@@ -7693,7 +7693,7 @@
         <v>46</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>94</v>
@@ -7725,7 +7725,7 @@
         <v>41</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>614</v>
@@ -7754,7 +7754,7 @@
         <v>41</v>
       </c>
       <c r="F158" s="24" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G158" s="26" t="s">
         <v>621</v>
@@ -7786,7 +7786,7 @@
         <v>41</v>
       </c>
       <c r="F159" s="24" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G159" s="25" t="s">
         <v>621</v>
@@ -7818,7 +7818,7 @@
         <v>41</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>621</v>
@@ -7850,7 +7850,7 @@
         <v>41</v>
       </c>
       <c r="F161" s="24" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G161" s="25" t="s">
         <v>622</v>
@@ -7882,10 +7882,10 @@
         <v>41</v>
       </c>
       <c r="F162" s="24" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G162" s="25" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I162" s="13" t="s">
         <v>129</v>
@@ -7911,10 +7911,10 @@
         <v>41</v>
       </c>
       <c r="F163" s="24" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G163" s="25" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H163" s="25" t="s">
         <v>650</v>
@@ -7943,10 +7943,10 @@
         <v>41</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H164" s="7"/>
       <c r="I164" s="13" t="s">
@@ -7973,10 +7973,10 @@
         <v>41</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I165" s="13" t="s">
         <v>129</v>
@@ -8002,10 +8002,10 @@
         <v>41</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H166" s="7" t="s">
         <v>636</v>
@@ -8034,10 +8034,10 @@
         <v>41</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I167" s="13" t="s">
         <v>129</v>
@@ -8063,10 +8063,10 @@
         <v>41</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H168" s="7"/>
       <c r="I168" s="13" t="s">
@@ -8093,10 +8093,10 @@
         <v>41</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H169" s="7" t="s">
         <v>646</v>
@@ -8125,7 +8125,7 @@
         <v>41</v>
       </c>
       <c r="F170" s="24" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G170" s="25" t="s">
         <v>621</v>
@@ -8157,7 +8157,7 @@
         <v>41</v>
       </c>
       <c r="F171" s="24" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G171" s="25" t="s">
         <v>621</v>
@@ -8187,7 +8187,7 @@
         <v>67</v>
       </c>
       <c r="F172" s="24" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G172" s="25" t="s">
         <v>621</v>
@@ -8216,7 +8216,7 @@
         <v>41</v>
       </c>
       <c r="F173" s="24" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G173" s="25" t="s">
         <v>621</v>
@@ -8245,7 +8245,7 @@
         <v>46</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>614</v>
@@ -8275,7 +8275,7 @@
         <v>41</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G175" s="4" t="s">
         <v>614</v>
@@ -8304,7 +8304,7 @@
         <v>41</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G176" s="22" t="s">
         <v>94</v>
@@ -8336,7 +8336,7 @@
         <v>41</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G177" s="4" t="s">
         <v>82</v>
@@ -8365,7 +8365,7 @@
         <v>41</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>82</v>
@@ -8395,10 +8395,10 @@
         <v>41</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H179" s="7"/>
       <c r="I179" s="13" t="s">
@@ -8425,10 +8425,10 @@
         <v>19</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H180" s="7"/>
       <c r="I180" s="13" t="s">
@@ -8455,10 +8455,10 @@
         <v>19</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H181" s="7"/>
       <c r="I181" s="13" t="s">
@@ -8485,10 +8485,10 @@
         <v>19</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H182" s="7" t="s">
         <v>639</v>
@@ -8517,7 +8517,7 @@
         <v>23</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G183" s="4" t="s">
         <v>623</v>
@@ -8546,10 +8546,10 @@
         <v>23</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H184" s="7"/>
       <c r="I184" s="13" t="s">
@@ -8576,10 +8576,10 @@
         <v>23</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H185" s="7"/>
       <c r="I185" s="13" t="s">
@@ -8606,7 +8606,7 @@
         <v>23</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G186" s="4" t="s">
         <v>123</v>
@@ -8635,7 +8635,7 @@
         <v>23</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G187" s="4" t="s">
         <v>123</v>
@@ -8664,7 +8664,7 @@
         <v>23</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G188" s="22" t="s">
         <v>123</v>
@@ -8694,7 +8694,7 @@
         <v>23</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G189" s="22" t="s">
         <v>226</v>
@@ -8726,7 +8726,7 @@
         <v>23</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G190" s="22" t="s">
         <v>226</v>
@@ -8756,7 +8756,7 @@
         <v>23</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G191" s="4" t="s">
         <v>123</v>
@@ -8785,7 +8785,7 @@
         <v>23</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G192" s="4" t="s">
         <v>155</v>
@@ -8815,7 +8815,7 @@
         <v>23</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G193" s="4" t="s">
         <v>155</v>
@@ -8844,7 +8844,7 @@
         <v>23</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>155</v>
@@ -8873,7 +8873,7 @@
         <v>23</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G195" s="4" t="s">
         <v>155</v>
@@ -8902,7 +8902,7 @@
         <v>23</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G196" s="4" t="s">
         <v>155</v>
@@ -8931,7 +8931,7 @@
         <v>23</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G197" s="4" t="s">
         <v>624</v>
@@ -8960,7 +8960,7 @@
         <v>23</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G198" s="4" t="s">
         <v>624</v>
@@ -8989,7 +8989,7 @@
         <v>23</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G199" s="4" t="s">
         <v>86</v>
@@ -9019,7 +9019,7 @@
         <v>23</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G200" s="4" t="s">
         <v>86</v>
@@ -9048,7 +9048,7 @@
         <v>23</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G201" s="4" t="s">
         <v>86</v>
@@ -9077,7 +9077,7 @@
         <v>23</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G202" s="4" t="s">
         <v>86</v>
@@ -9107,7 +9107,7 @@
         <v>23</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G203" s="4" t="s">
         <v>618</v>
@@ -9137,7 +9137,7 @@
         <v>23</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G204" s="4" t="s">
         <v>86</v>
@@ -9167,7 +9167,7 @@
         <v>23</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G205" s="4" t="s">
         <v>86</v>
@@ -9197,10 +9197,10 @@
         <v>23</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H206" s="7" t="s">
         <v>639</v>
@@ -9229,10 +9229,10 @@
         <v>23</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H207" s="7"/>
       <c r="I207" s="13" t="s">
@@ -9259,10 +9259,10 @@
         <v>23</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H208" s="7" t="s">
         <v>625</v>
@@ -9291,10 +9291,10 @@
         <v>23</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H209" s="7" t="s">
         <v>625</v>
@@ -9323,10 +9323,10 @@
         <v>23</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H210" s="7"/>
       <c r="I210" s="13" t="s">
@@ -9353,7 +9353,7 @@
         <v>23</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G211" s="4" t="s">
         <v>86</v>
@@ -9382,7 +9382,7 @@
         <v>23</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G212" s="4" t="s">
         <v>86</v>
@@ -9411,7 +9411,7 @@
         <v>23</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G213" s="4" t="s">
         <v>86</v>
@@ -9441,7 +9441,7 @@
         <v>23</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G214" s="4" t="s">
         <v>86</v>
@@ -9471,7 +9471,7 @@
         <v>23</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G215" s="4" t="s">
         <v>86</v>
@@ -9500,7 +9500,7 @@
         <v>5</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H216" s="7"/>
       <c r="I216" s="13" t="s">
@@ -9527,7 +9527,7 @@
         <v>5</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I217" s="13" t="s">
         <v>6</v>
@@ -9553,7 +9553,7 @@
         <v>5</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I218" s="13" t="s">
         <v>6</v>
@@ -9579,7 +9579,7 @@
         <v>5</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I219" s="13" t="s">
         <v>6</v>
@@ -9605,7 +9605,7 @@
         <v>5</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I220" s="13" t="s">
         <v>6</v>
@@ -9631,7 +9631,7 @@
         <v>5</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I221" s="13" t="s">
         <v>6</v>
@@ -9657,7 +9657,7 @@
         <v>5</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I222" s="13" t="s">
         <v>6</v>
@@ -9683,7 +9683,7 @@
         <v>5</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I223" s="13" t="s">
         <v>6</v>
@@ -9709,7 +9709,7 @@
         <v>5</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I224" s="13" t="s">
         <v>6</v>
@@ -9735,7 +9735,7 @@
         <v>5</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I225" s="13" t="s">
         <v>75</v>
@@ -9761,7 +9761,7 @@
         <v>5</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I226" s="5" t="s">
         <v>71</v>
@@ -9787,7 +9787,7 @@
         <v>5</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I227" s="13" t="s">
         <v>64</v>
@@ -9813,7 +9813,7 @@
         <v>5</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I228" s="13" t="s">
         <v>64</v>
@@ -9839,7 +9839,7 @@
         <v>46</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I229" s="13" t="s">
         <v>64</v>
@@ -9865,7 +9865,7 @@
         <v>19</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I230" s="13" t="s">
         <v>60</v>
@@ -9891,7 +9891,7 @@
         <v>19</v>
       </c>
       <c r="F231" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I231" s="13" t="s">
         <v>56</v>
@@ -9917,7 +9917,7 @@
         <v>19</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I232" s="13" t="s">
         <v>17</v>
@@ -9943,7 +9943,7 @@
         <v>19</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I233" s="13" t="s">
         <v>17</v>
@@ -9969,7 +9969,7 @@
         <v>19</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I234" s="13" t="s">
         <v>17</v>
@@ -9995,7 +9995,7 @@
         <v>51</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I235" s="13" t="s">
         <v>17</v>
@@ -10021,7 +10021,7 @@
         <v>51</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I236" s="13" t="s">
         <v>17</v>
@@ -10047,7 +10047,7 @@
         <v>46</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I237" s="13" t="s">
         <v>17</v>
@@ -10073,7 +10073,7 @@
         <v>41</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I238" s="13" t="s">
         <v>17</v>
@@ -10099,7 +10099,7 @@
         <v>23</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I239" s="13" t="s">
         <v>20</v>
@@ -10125,7 +10125,7 @@
         <v>5</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I240" s="13" t="s">
         <v>16</v>
@@ -10151,7 +10151,7 @@
         <v>23</v>
       </c>
       <c r="F241" s="24" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I241" s="13" t="s">
         <v>27</v>
@@ -10177,7 +10177,7 @@
         <v>23</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I242" s="13" t="s">
         <v>24</v>
@@ -10203,7 +10203,7 @@
         <v>23</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I243" s="13" t="s">
         <v>24</v>
@@ -10229,7 +10229,7 @@
         <v>23</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I244" s="13" t="s">
         <v>33</v>
@@ -10255,7 +10255,7 @@
         <v>23</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I245" s="13" t="s">
         <v>33</v>
@@ -10281,7 +10281,7 @@
         <v>23</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I246" s="13" t="s">
         <v>33</v>
@@ -10307,7 +10307,7 @@
         <v>23</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I247" s="13" t="s">
         <v>33</v>
@@ -10333,7 +10333,7 @@
         <v>23</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I248" s="13" t="s">
         <v>33</v>
@@ -10359,7 +10359,7 @@
         <v>23</v>
       </c>
       <c r="F249" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I249" s="13" t="s">
         <v>33</v>
@@ -10385,7 +10385,7 @@
         <v>23</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I250" s="13" t="s">
         <v>33</v>
@@ -10411,7 +10411,7 @@
         <v>23</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I251" s="13" t="s">
         <v>33</v>
@@ -10437,7 +10437,7 @@
         <v>23</v>
       </c>
       <c r="F252" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I252" s="13" t="s">
         <v>29</v>
@@ -10463,7 +10463,7 @@
         <v>23</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I253" s="13" t="s">
         <v>29</v>
@@ -10489,7 +10489,7 @@
         <v>23</v>
       </c>
       <c r="F254" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I254" s="13" t="s">
         <v>29</v>
@@ -10515,7 +10515,7 @@
         <v>34</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I255" s="13" t="s">
         <v>35</v>
@@ -10541,7 +10541,7 @@
         <v>34</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I256" s="13" t="s">
         <v>35</v>
@@ -10567,7 +10567,7 @@
         <v>34</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I257" s="13" t="s">
         <v>35</v>
@@ -10593,7 +10593,7 @@
         <v>34</v>
       </c>
       <c r="F258" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I258" s="13" t="s">
         <v>36</v>
@@ -10619,7 +10619,7 @@
         <v>34</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I259" s="13" t="s">
         <v>36</v>
@@ -10645,7 +10645,7 @@
         <v>34</v>
       </c>
       <c r="F260" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I260" s="13" t="s">
         <v>37</v>
@@ -10671,7 +10671,7 @@
         <v>34</v>
       </c>
       <c r="F261" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I261" s="13" t="s">
         <v>37</v>
@@ -10697,7 +10697,7 @@
         <v>34</v>
       </c>
       <c r="F262" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I262" s="13" t="s">
         <v>38</v>
@@ -10723,7 +10723,7 @@
         <v>34</v>
       </c>
       <c r="F263" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I263" s="13" t="s">
         <v>38</v>
@@ -10749,7 +10749,7 @@
         <v>34</v>
       </c>
       <c r="F264" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I264" s="13" t="s">
         <v>39</v>
@@ -10775,7 +10775,7 @@
         <v>34</v>
       </c>
       <c r="F265" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I265" s="13" t="s">
         <v>39</v>
@@ -10801,7 +10801,7 @@
         <v>34</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I266" s="13" t="s">
         <v>39</v>
@@ -10825,8 +10825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/single-cell/zeisel_2018/expanded.mmc3.xlsx
+++ b/data/single-cell/zeisel_2018/expanded.mmc3.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/linhe_xu_vanderbilt_edu/Documents/Herculano_Lab/Projects/neuron-glia-dNdS/data/single-cell/zeisel_2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{F399EDFA-C1D6-2E4E-9C88-52D6AD18357C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F4407D5-73C1-CE4D-A281-B1C99D021795}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{F399EDFA-C1D6-2E4E-9C88-52D6AD18357C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5805EA40-F893-8E49-9338-62C1F9F14F73}"/>
   <bookViews>
-    <workbookView xWindow="33180" yWindow="-2060" windowWidth="27780" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30720" yWindow="-1940" windowWidth="27780" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7571_0_celltypes_summary_leafor" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Linhe_Notes" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7571_0_celltypes_summary_leafor'!$A$1:$J$266</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="686">
   <si>
     <t>Region</t>
   </si>
@@ -2007,12 +2008,6 @@
     <t>Trinarization detects GABA</t>
   </si>
   <si>
-    <t>OBINH6</t>
-  </si>
-  <si>
-    <t>Inhibitory neurons, olfactory nulb</t>
-  </si>
-  <si>
     <t>Glutamate (VGLUT1),Glutamate (VGLUT2),Glutamate (VGLUT3)</t>
   </si>
   <si>
@@ -2095,13 +2090,22 @@
   </si>
   <si>
     <t>OBDOP1</t>
+  </si>
+  <si>
+    <t>OBDOP2</t>
+  </si>
+  <si>
+    <t>Dopaminergic neurons, olfactory bulb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confusing stainings in Allen </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2160,8 +2164,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2177,6 +2186,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2483,7 +2498,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2548,6 +2563,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2661,6 +2689,121 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2463800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD499386-660E-0519-99E7-EAA79A113C5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2463800" y="596900"/>
+          <a:ext cx="8178800" cy="3911600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The cluster names does not perfectly matches those in the agg.l5.loom file.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t> OBDOP in this file is actually OBDOP1 in the loom file, and OBINH5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t> in this file is the OBDOP2 cluster in the loom file. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>OBINH6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t> in this file is actually OBINH5 in the loom file. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t>These names have been corrected to match that of the loom file (OBDOP -&gt; OBDOP1; OBINH5 -&gt; OBDOP2; OBINH6 - &gt; OBINH5). </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t>These modification have been labeled with the colour red. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2924,13 +3067,13 @@
   <dimension ref="A1:J266"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.5" style="8" customWidth="1"/>
     <col min="2" max="2" width="12" style="9" bestFit="1" customWidth="1"/>
@@ -2944,7 +3087,7 @@
     <col min="11" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="19" customFormat="1">
       <c r="A1" s="17" t="s">
         <v>598</v>
       </c>
@@ -2961,7 +3104,7 @@
         <v>596</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>2</v>
@@ -2976,7 +3119,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="16">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -2993,10 +3136,10 @@
         <v>19</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>626</v>
@@ -3008,7 +3151,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="16">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -3025,7 +3168,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>82</v>
@@ -3037,7 +3180,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="16">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -3054,7 +3197,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>82</v>
@@ -3066,7 +3209,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="16">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -3083,7 +3226,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>82</v>
@@ -3098,7 +3241,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="16">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -3115,7 +3258,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>82</v>
@@ -3127,7 +3270,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="16">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -3144,10 +3287,10 @@
         <v>19</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>185</v>
@@ -3156,7 +3299,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="16">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -3173,7 +3316,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>82</v>
@@ -3188,7 +3331,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="16">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -3205,10 +3348,10 @@
         <v>19</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="13" t="s">
@@ -3218,7 +3361,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="16">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -3235,10 +3378,10 @@
         <v>19</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="13" t="s">
@@ -3248,7 +3391,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="16">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -3265,10 +3408,10 @@
         <v>19</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>627</v>
@@ -3280,7 +3423,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="16">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -3297,10 +3440,10 @@
         <v>19</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>625</v>
@@ -3312,7 +3455,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="16">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -3329,10 +3472,10 @@
         <v>19</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>630</v>
@@ -3344,7 +3487,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="16">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -3361,10 +3504,10 @@
         <v>19</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="13" t="s">
@@ -3374,7 +3517,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="16">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -3391,10 +3534,10 @@
         <v>19</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="13" t="s">
@@ -3404,7 +3547,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -3421,10 +3564,10 @@
         <v>19</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="13" t="s">
@@ -3434,7 +3577,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="16">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -3451,10 +3594,10 @@
         <v>19</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>625</v>
@@ -3466,7 +3609,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="16">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -3483,10 +3626,10 @@
         <v>19</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>625</v>
@@ -3498,7 +3641,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="16">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -3515,10 +3658,10 @@
         <v>19</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="13" t="s">
@@ -3528,7 +3671,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="16">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -3545,7 +3688,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>82</v>
@@ -3558,7 +3701,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="16">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -3575,10 +3718,10 @@
         <v>19</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="13" t="s">
@@ -3588,7 +3731,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="16">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -3605,7 +3748,7 @@
         <v>19</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>613</v>
@@ -3618,7 +3761,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="16">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -3635,10 +3778,10 @@
         <v>19</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>629</v>
@@ -3650,7 +3793,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="16">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -3667,7 +3810,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>613</v>
@@ -3682,7 +3825,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="16">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -3699,7 +3842,7 @@
         <v>19</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>613</v>
@@ -3714,7 +3857,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="16">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -3731,7 +3874,7 @@
         <v>19</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>82</v>
@@ -3744,7 +3887,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="16">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -3761,7 +3904,7 @@
         <v>19</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>82</v>
@@ -3774,7 +3917,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="16">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -3791,7 +3934,7 @@
         <v>19</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>94</v>
@@ -3804,7 +3947,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="16">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -3821,7 +3964,7 @@
         <v>19</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>94</v>
@@ -3833,7 +3976,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="16">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -3850,7 +3993,7 @@
         <v>19</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>94</v>
@@ -3862,7 +4005,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A31" s="11">
         <v>29</v>
       </c>
@@ -3879,7 +4022,7 @@
         <v>19</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>94</v>
@@ -3892,7 +4035,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="16">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -3909,7 +4052,7 @@
         <v>19</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>94</v>
@@ -3921,7 +4064,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="16">
       <c r="A33" s="11">
         <v>31</v>
       </c>
@@ -3938,7 +4081,7 @@
         <v>19</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>94</v>
@@ -3950,7 +4093,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="16">
       <c r="A34" s="11">
         <v>32</v>
       </c>
@@ -3967,7 +4110,7 @@
         <v>78</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>86</v>
@@ -3982,7 +4125,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="16">
       <c r="A35" s="11">
         <v>33</v>
       </c>
@@ -3999,7 +4142,7 @@
         <v>19</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>82</v>
@@ -4014,7 +4157,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="16">
       <c r="A36" s="11">
         <v>34</v>
       </c>
@@ -4031,7 +4174,7 @@
         <v>19</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>86</v>
@@ -4044,7 +4187,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="16">
       <c r="A37" s="11">
         <v>35</v>
       </c>
@@ -4061,7 +4204,7 @@
         <v>19</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>94</v>
@@ -4074,7 +4217,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="16">
       <c r="A38" s="11">
         <v>36</v>
       </c>
@@ -4091,7 +4234,7 @@
         <v>19</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>94</v>
@@ -4103,7 +4246,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A39" s="11">
         <v>37</v>
       </c>
@@ -4120,7 +4263,7 @@
         <v>19</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>94</v>
@@ -4133,15 +4276,15 @@
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A40" s="12">
         <v>38</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>515</v>
+      <c r="B40" s="28" t="s">
+        <v>683</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>656</v>
+        <v>684</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>18</v>
@@ -4149,14 +4292,14 @@
       <c r="E40" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="29" t="s">
         <v>672</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>625</v>
+      <c r="G40" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="H40" s="31" t="s">
+        <v>685</v>
       </c>
       <c r="I40" s="13" t="s">
         <v>209</v>
@@ -4165,7 +4308,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="16">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -4182,7 +4325,7 @@
         <v>19</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>94</v>
@@ -4194,7 +4337,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A42" s="12">
         <v>40</v>
       </c>
@@ -4211,7 +4354,7 @@
         <v>19</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>94</v>
@@ -4224,7 +4367,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A43" s="12">
         <v>41</v>
       </c>
@@ -4241,7 +4384,7 @@
         <v>19</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>94</v>
@@ -4254,7 +4397,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A44" s="12">
         <v>42</v>
       </c>
@@ -4271,7 +4414,7 @@
         <v>19</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>94</v>
@@ -4284,7 +4427,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A45" s="12">
         <v>43</v>
       </c>
@@ -4301,7 +4444,7 @@
         <v>19</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>94</v>
@@ -4314,12 +4457,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A46" s="12">
         <v>44</v>
       </c>
-      <c r="B46" s="12" t="s">
-        <v>684</v>
+      <c r="B46" s="28" t="s">
+        <v>682</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>277</v>
@@ -4331,7 +4474,7 @@
         <v>19</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G46" s="25" t="s">
         <v>210</v>
@@ -4344,12 +4487,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A47" s="12">
         <v>45</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>655</v>
+      <c r="B47" s="28" t="s">
+        <v>515</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>278</v>
@@ -4361,7 +4504,7 @@
         <v>19</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>94</v>
@@ -4374,7 +4517,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" s="6" customFormat="1">
       <c r="A48" s="12">
         <v>46</v>
       </c>
@@ -4391,7 +4534,7 @@
         <v>78</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>94</v>
@@ -4406,7 +4549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" s="6" customFormat="1">
       <c r="A49" s="12">
         <v>47</v>
       </c>
@@ -4423,7 +4566,7 @@
         <v>78</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>94</v>
@@ -4436,7 +4579,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" s="6" customFormat="1">
       <c r="A50" s="12">
         <v>48</v>
       </c>
@@ -4453,7 +4596,7 @@
         <v>19</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>94</v>
@@ -4468,7 +4611,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" s="6" customFormat="1">
       <c r="A51" s="12">
         <v>49</v>
       </c>
@@ -4485,7 +4628,7 @@
         <v>19</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>614</v>
@@ -4498,7 +4641,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" s="6" customFormat="1">
       <c r="A52" s="12">
         <v>50</v>
       </c>
@@ -4515,7 +4658,7 @@
         <v>19</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>94</v>
@@ -4528,7 +4671,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" s="6" customFormat="1">
       <c r="A53" s="12">
         <v>51</v>
       </c>
@@ -4545,7 +4688,7 @@
         <v>19</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>614</v>
@@ -4560,7 +4703,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" s="6" customFormat="1">
       <c r="A54" s="12">
         <v>52</v>
       </c>
@@ -4577,7 +4720,7 @@
         <v>19</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>614</v>
@@ -4590,7 +4733,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" s="6" customFormat="1">
       <c r="A55" s="12">
         <v>53</v>
       </c>
@@ -4607,7 +4750,7 @@
         <v>19</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>614</v>
@@ -4620,7 +4763,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" s="6" customFormat="1">
       <c r="A56" s="12">
         <v>54</v>
       </c>
@@ -4637,7 +4780,7 @@
         <v>19</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>94</v>
@@ -4652,7 +4795,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" s="6" customFormat="1">
       <c r="A57" s="12">
         <v>55</v>
       </c>
@@ -4669,7 +4812,7 @@
         <v>19</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>94</v>
@@ -4682,7 +4825,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="12">
         <v>56</v>
       </c>
@@ -4699,7 +4842,7 @@
         <v>19</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>615</v>
@@ -4714,7 +4857,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" s="6" customFormat="1">
       <c r="A59" s="12">
         <v>57</v>
       </c>
@@ -4731,7 +4874,7 @@
         <v>19</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>615</v>
@@ -4746,7 +4889,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" s="6" customFormat="1">
       <c r="A60" s="12">
         <v>58</v>
       </c>
@@ -4763,7 +4906,7 @@
         <v>19</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>94</v>
@@ -4776,7 +4919,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" s="6" customFormat="1">
       <c r="A61" s="12">
         <v>59</v>
       </c>
@@ -4793,7 +4936,7 @@
         <v>19</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>615</v>
@@ -4808,7 +4951,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" s="6" customFormat="1">
       <c r="A62" s="12">
         <v>60</v>
       </c>
@@ -4825,7 +4968,7 @@
         <v>19</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>615</v>
@@ -4840,7 +4983,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" s="6" customFormat="1">
       <c r="A63" s="12">
         <v>61</v>
       </c>
@@ -4857,7 +5000,7 @@
         <v>19</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>94</v>
@@ -4870,7 +5013,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" s="6" customFormat="1">
       <c r="A64" s="12">
         <v>62</v>
       </c>
@@ -4887,7 +5030,7 @@
         <v>19</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>614</v>
@@ -4900,7 +5043,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" s="6" customFormat="1">
       <c r="A65" s="12">
         <v>63</v>
       </c>
@@ -4917,7 +5060,7 @@
         <v>19</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>94</v>
@@ -4930,7 +5073,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" s="6" customFormat="1">
       <c r="A66" s="12">
         <v>64</v>
       </c>
@@ -4947,7 +5090,7 @@
         <v>19</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>94</v>
@@ -4960,7 +5103,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" s="6" customFormat="1">
       <c r="A67" s="12">
         <v>65</v>
       </c>
@@ -4977,7 +5120,7 @@
         <v>19</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>94</v>
@@ -4992,7 +5135,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A68" s="12">
         <v>66</v>
       </c>
@@ -5009,7 +5152,7 @@
         <v>19</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>616</v>
@@ -5024,7 +5167,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A69" s="12">
         <v>67</v>
       </c>
@@ -5041,7 +5184,7 @@
         <v>78</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>616</v>
@@ -5056,7 +5199,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A70" s="12">
         <v>68</v>
       </c>
@@ -5073,7 +5216,7 @@
         <v>41</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>617</v>
@@ -5088,7 +5231,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A71" s="12">
         <v>69</v>
       </c>
@@ -5105,10 +5248,10 @@
         <v>41</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>642</v>
@@ -5120,7 +5263,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A72" s="12">
         <v>70</v>
       </c>
@@ -5137,10 +5280,10 @@
         <v>41</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>632</v>
@@ -5152,7 +5295,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A73" s="12">
         <v>71</v>
       </c>
@@ -5169,10 +5312,10 @@
         <v>41</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="H73" s="15" t="s">
         <v>643</v>
@@ -5184,7 +5327,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A74" s="12">
         <v>72</v>
       </c>
@@ -5201,7 +5344,7 @@
         <v>78</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>86</v>
@@ -5214,7 +5357,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A75" s="12">
         <v>73</v>
       </c>
@@ -5231,7 +5374,7 @@
         <v>78</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>618</v>
@@ -5246,7 +5389,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A76" s="12">
         <v>74</v>
       </c>
@@ -5263,10 +5406,10 @@
         <v>46</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>632</v>
@@ -5278,7 +5421,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A77" s="12">
         <v>75</v>
       </c>
@@ -5295,7 +5438,7 @@
         <v>46</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>619</v>
@@ -5308,7 +5451,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A78" s="12">
         <v>76</v>
       </c>
@@ -5325,7 +5468,7 @@
         <v>46</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>619</v>
@@ -5338,7 +5481,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A79" s="12">
         <v>77</v>
       </c>
@@ -5355,10 +5498,10 @@
         <v>41</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H79" s="7" t="s">
         <v>625</v>
@@ -5370,7 +5513,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A80" s="12">
         <v>78</v>
       </c>
@@ -5387,10 +5530,10 @@
         <v>41</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>625</v>
@@ -5402,7 +5545,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A81" s="12">
         <v>79</v>
       </c>
@@ -5419,7 +5562,7 @@
         <v>41</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G81" s="15" t="s">
         <v>634</v>
@@ -5434,7 +5577,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A82" s="12">
         <v>80</v>
       </c>
@@ -5451,10 +5594,10 @@
         <v>41</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="13" t="s">
@@ -5464,7 +5607,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A83" s="12">
         <v>81</v>
       </c>
@@ -5481,10 +5624,10 @@
         <v>41</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>632</v>
@@ -5496,7 +5639,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A84" s="12">
         <v>82</v>
       </c>
@@ -5513,7 +5656,7 @@
         <v>19</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>94</v>
@@ -5526,7 +5669,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A85" s="12">
         <v>83</v>
       </c>
@@ -5543,7 +5686,7 @@
         <v>19</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>94</v>
@@ -5556,7 +5699,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A86" s="12">
         <v>84</v>
       </c>
@@ -5573,7 +5716,7 @@
         <v>78</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>614</v>
@@ -5586,7 +5729,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A87" s="12">
         <v>85</v>
       </c>
@@ -5603,7 +5746,7 @@
         <v>78</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>94</v>
@@ -5616,7 +5759,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A88" s="12">
         <v>86</v>
       </c>
@@ -5633,7 +5776,7 @@
         <v>78</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>618</v>
@@ -5648,7 +5791,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A89" s="12">
         <v>87</v>
       </c>
@@ -5665,7 +5808,7 @@
         <v>78</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>86</v>
@@ -5680,7 +5823,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="90" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A90" s="12">
         <v>88</v>
       </c>
@@ -5697,7 +5840,7 @@
         <v>78</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>618</v>
@@ -5712,7 +5855,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A91" s="12">
         <v>89</v>
       </c>
@@ -5729,7 +5872,7 @@
         <v>46</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>94</v>
@@ -5742,7 +5885,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A92" s="12">
         <v>90</v>
       </c>
@@ -5759,7 +5902,7 @@
         <v>78</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>94</v>
@@ -5772,7 +5915,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A93" s="12">
         <v>91</v>
       </c>
@@ -5789,7 +5932,7 @@
         <v>78</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>94</v>
@@ -5802,7 +5945,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A94" s="12">
         <v>92</v>
       </c>
@@ -5819,7 +5962,7 @@
         <v>78</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>94</v>
@@ -5832,7 +5975,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A95" s="12">
         <v>93</v>
       </c>
@@ -5849,7 +5992,7 @@
         <v>78</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>86</v>
@@ -5862,7 +6005,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A96" s="12">
         <v>94</v>
       </c>
@@ -5879,7 +6022,7 @@
         <v>78</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>618</v>
@@ -5892,7 +6035,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A97" s="12">
         <v>95</v>
       </c>
@@ -5909,7 +6052,7 @@
         <v>78</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>86</v>
@@ -5922,7 +6065,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="98" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A98" s="12">
         <v>96</v>
       </c>
@@ -5939,7 +6082,7 @@
         <v>67</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>94</v>
@@ -5952,7 +6095,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A99" s="12">
         <v>97</v>
       </c>
@@ -5969,7 +6112,7 @@
         <v>67</v>
       </c>
       <c r="F99" s="24" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G99" s="25" t="s">
         <v>620</v>
@@ -5984,7 +6127,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="100" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A100" s="12">
         <v>98</v>
       </c>
@@ -6001,7 +6144,7 @@
         <v>67</v>
       </c>
       <c r="F100" s="24" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G100" s="25" t="s">
         <v>621</v>
@@ -6016,7 +6159,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="101" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A101" s="12">
         <v>99</v>
       </c>
@@ -6033,7 +6176,7 @@
         <v>67</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>94</v>
@@ -6046,7 +6189,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A102" s="12">
         <v>100</v>
       </c>
@@ -6063,7 +6206,7 @@
         <v>67</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G102" s="7" t="s">
         <v>94</v>
@@ -6076,7 +6219,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="103" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A103" s="12">
         <v>101</v>
       </c>
@@ -6093,7 +6236,7 @@
         <v>67</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>94</v>
@@ -6106,7 +6249,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A104" s="12">
         <v>102</v>
       </c>
@@ -6123,7 +6266,7 @@
         <v>67</v>
       </c>
       <c r="F104" s="24" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G104" s="25" t="s">
         <v>621</v>
@@ -6136,7 +6279,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="105" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A105" s="12">
         <v>103</v>
       </c>
@@ -6153,7 +6296,7 @@
         <v>67</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>94</v>
@@ -6166,7 +6309,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="106" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A106" s="12">
         <v>104</v>
       </c>
@@ -6183,7 +6326,7 @@
         <v>67</v>
       </c>
       <c r="F106" s="24" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G106" s="25" t="s">
         <v>621</v>
@@ -6196,7 +6339,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A107" s="12">
         <v>105</v>
       </c>
@@ -6213,7 +6356,7 @@
         <v>41</v>
       </c>
       <c r="F107" s="24" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G107" s="25" t="s">
         <v>621</v>
@@ -6228,7 +6371,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A108" s="12">
         <v>106</v>
       </c>
@@ -6245,7 +6388,7 @@
         <v>67</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>621</v>
@@ -6260,7 +6403,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="109" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A109" s="12">
         <v>107</v>
       </c>
@@ -6277,7 +6420,7 @@
         <v>67</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>86</v>
@@ -6290,7 +6433,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A110" s="12">
         <v>108</v>
       </c>
@@ -6307,7 +6450,7 @@
         <v>67</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>86</v>
@@ -6320,7 +6463,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="111" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A111" s="12">
         <v>109</v>
       </c>
@@ -6337,7 +6480,7 @@
         <v>67</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>86</v>
@@ -6350,7 +6493,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="112" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A112" s="12">
         <v>110</v>
       </c>
@@ -6367,7 +6510,7 @@
         <v>67</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>618</v>
@@ -6380,7 +6523,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="113" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A113" s="12">
         <v>111</v>
       </c>
@@ -6397,7 +6540,7 @@
         <v>67</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>86</v>
@@ -6410,7 +6553,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A114" s="12">
         <v>112</v>
       </c>
@@ -6427,7 +6570,7 @@
         <v>67</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>86</v>
@@ -6440,7 +6583,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="115" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A115" s="12">
         <v>113</v>
       </c>
@@ -6457,7 +6600,7 @@
         <v>67</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>86</v>
@@ -6470,7 +6613,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="116" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A116" s="12">
         <v>114</v>
       </c>
@@ -6487,7 +6630,7 @@
         <v>67</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G116" s="7" t="s">
         <v>86</v>
@@ -6502,7 +6645,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A117" s="12">
         <v>115</v>
       </c>
@@ -6519,7 +6662,7 @@
         <v>67</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G117" s="7" t="s">
         <v>86</v>
@@ -6532,7 +6675,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="118" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A118" s="12">
         <v>116</v>
       </c>
@@ -6549,7 +6692,7 @@
         <v>67</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>86</v>
@@ -6562,7 +6705,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="119" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A119" s="12">
         <v>117</v>
       </c>
@@ -6579,7 +6722,7 @@
         <v>41</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>86</v>
@@ -6592,7 +6735,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="120" spans="1:10" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A120" s="12">
         <v>118</v>
       </c>
@@ -6609,7 +6752,7 @@
         <v>41</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G120" s="7" t="s">
         <v>618</v>
@@ -6624,7 +6767,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" ht="16">
       <c r="A121" s="11">
         <v>119</v>
       </c>
@@ -6641,7 +6784,7 @@
         <v>41</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>618</v>
@@ -6654,7 +6797,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" ht="16">
       <c r="A122" s="11">
         <v>120</v>
       </c>
@@ -6671,7 +6814,7 @@
         <v>46</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>86</v>
@@ -6684,7 +6827,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" ht="16">
       <c r="A123" s="11">
         <v>121</v>
       </c>
@@ -6701,7 +6844,7 @@
         <v>46</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>86</v>
@@ -6714,7 +6857,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" ht="16">
       <c r="A124" s="11">
         <v>122</v>
       </c>
@@ -6731,7 +6874,7 @@
         <v>46</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>86</v>
@@ -6744,7 +6887,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" ht="16">
       <c r="A125" s="11">
         <v>123</v>
       </c>
@@ -6761,7 +6904,7 @@
         <v>46</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>86</v>
@@ -6776,7 +6919,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" ht="16">
       <c r="A126" s="11">
         <v>124</v>
       </c>
@@ -6793,7 +6936,7 @@
         <v>46</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>86</v>
@@ -6805,7 +6948,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" ht="16">
       <c r="A127" s="11">
         <v>125</v>
       </c>
@@ -6822,7 +6965,7 @@
         <v>46</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>618</v>
@@ -6834,7 +6977,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" ht="16">
       <c r="A128" s="11">
         <v>126</v>
       </c>
@@ -6851,7 +6994,7 @@
         <v>46</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>618</v>
@@ -6866,7 +7009,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" ht="16">
       <c r="A129" s="11">
         <v>127</v>
       </c>
@@ -6883,7 +7026,7 @@
         <v>46</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>618</v>
@@ -6895,7 +7038,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" ht="16">
       <c r="A130" s="11">
         <v>128</v>
       </c>
@@ -6912,7 +7055,7 @@
         <v>46</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>86</v>
@@ -6925,7 +7068,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" ht="16">
       <c r="A131" s="11">
         <v>129</v>
       </c>
@@ -6942,7 +7085,7 @@
         <v>46</v>
       </c>
       <c r="F131" s="24" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G131" s="25" t="s">
         <v>226</v>
@@ -6954,7 +7097,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" ht="16">
       <c r="A132" s="11">
         <v>130</v>
       </c>
@@ -6971,7 +7114,7 @@
         <v>46</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>86</v>
@@ -6983,7 +7126,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" ht="16">
       <c r="A133" s="11">
         <v>131</v>
       </c>
@@ -7000,7 +7143,7 @@
         <v>46</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>86</v>
@@ -7013,7 +7156,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" ht="16">
       <c r="A134" s="11">
         <v>132</v>
       </c>
@@ -7030,7 +7173,7 @@
         <v>46</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>618</v>
@@ -7042,7 +7185,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" ht="16">
       <c r="A135" s="11">
         <v>133</v>
       </c>
@@ -7059,10 +7202,10 @@
         <v>19</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H135" s="7"/>
       <c r="I135" s="13" t="s">
@@ -7072,7 +7215,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" ht="16">
       <c r="A136" s="11">
         <v>134</v>
       </c>
@@ -7089,10 +7232,10 @@
         <v>78</v>
       </c>
       <c r="F136" s="24" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G136" s="25" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H136" s="4" t="s">
         <v>645</v>
@@ -7104,7 +7247,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" ht="16">
       <c r="A137" s="11">
         <v>135</v>
       </c>
@@ -7121,10 +7264,10 @@
         <v>41</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H137" s="7"/>
       <c r="I137" s="13" t="s">
@@ -7134,7 +7277,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" ht="16">
       <c r="A138" s="11">
         <v>136</v>
       </c>
@@ -7151,10 +7294,10 @@
         <v>78</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="I138" s="13" t="s">
         <v>313</v>
@@ -7163,7 +7306,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" ht="16">
       <c r="A139" s="11">
         <v>137</v>
       </c>
@@ -7180,10 +7323,10 @@
         <v>78</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H139" s="7" t="s">
         <v>638</v>
@@ -7195,7 +7338,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" ht="16">
       <c r="A140" s="11">
         <v>138</v>
       </c>
@@ -7212,7 +7355,7 @@
         <v>78</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>86</v>
@@ -7224,7 +7367,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" ht="16">
       <c r="A141" s="11">
         <v>139</v>
       </c>
@@ -7241,10 +7384,10 @@
         <v>78</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="I141" s="13" t="s">
         <v>313</v>
@@ -7253,7 +7396,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" ht="16">
       <c r="A142" s="11">
         <v>140</v>
       </c>
@@ -7270,7 +7413,7 @@
         <v>46</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>94</v>
@@ -7283,7 +7426,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" ht="16">
       <c r="A143" s="11">
         <v>141</v>
       </c>
@@ -7300,7 +7443,7 @@
         <v>46</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>614</v>
@@ -7313,7 +7456,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" ht="16">
       <c r="A144" s="11">
         <v>142</v>
       </c>
@@ -7330,7 +7473,7 @@
         <v>46</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>614</v>
@@ -7342,7 +7485,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" ht="16">
       <c r="A145" s="11">
         <v>143</v>
       </c>
@@ -7359,7 +7502,7 @@
         <v>46</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>94</v>
@@ -7374,7 +7517,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" ht="16">
       <c r="A146" s="11">
         <v>144</v>
       </c>
@@ -7391,7 +7534,7 @@
         <v>46</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>94</v>
@@ -7404,7 +7547,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" ht="16">
       <c r="A147" s="11">
         <v>145</v>
       </c>
@@ -7421,7 +7564,7 @@
         <v>46</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>94</v>
@@ -7436,7 +7579,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" ht="16">
       <c r="A148" s="11">
         <v>146</v>
       </c>
@@ -7453,7 +7596,7 @@
         <v>46</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>94</v>
@@ -7466,7 +7609,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" ht="16">
       <c r="A149" s="11">
         <v>147</v>
       </c>
@@ -7483,7 +7626,7 @@
         <v>46</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>614</v>
@@ -7496,7 +7639,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" ht="16">
       <c r="A150" s="11">
         <v>148</v>
       </c>
@@ -7513,7 +7656,7 @@
         <v>46</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>94</v>
@@ -7526,7 +7669,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" ht="16">
       <c r="A151" s="11">
         <v>149</v>
       </c>
@@ -7543,7 +7686,7 @@
         <v>41</v>
       </c>
       <c r="F151" s="24" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G151" s="25" t="s">
         <v>621</v>
@@ -7556,7 +7699,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" ht="16">
       <c r="A152" s="11">
         <v>150</v>
       </c>
@@ -7573,7 +7716,7 @@
         <v>46</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G152" s="4" t="s">
         <v>94</v>
@@ -7586,7 +7729,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" ht="16">
       <c r="A153" s="11">
         <v>151</v>
       </c>
@@ -7603,7 +7746,7 @@
         <v>78</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>94</v>
@@ -7616,7 +7759,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" ht="16">
       <c r="A154" s="11">
         <v>152</v>
       </c>
@@ -7633,7 +7776,7 @@
         <v>19</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>94</v>
@@ -7646,7 +7789,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" ht="16">
       <c r="A155" s="11">
         <v>153</v>
       </c>
@@ -7663,7 +7806,7 @@
         <v>46</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>94</v>
@@ -7676,7 +7819,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" ht="16">
       <c r="A156" s="11">
         <v>154</v>
       </c>
@@ -7693,7 +7836,7 @@
         <v>46</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>94</v>
@@ -7708,7 +7851,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" ht="16">
       <c r="A157" s="11">
         <v>155</v>
       </c>
@@ -7725,7 +7868,7 @@
         <v>41</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>614</v>
@@ -7737,7 +7880,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" ht="16">
       <c r="A158" s="11">
         <v>156</v>
       </c>
@@ -7754,7 +7897,7 @@
         <v>41</v>
       </c>
       <c r="F158" s="24" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G158" s="26" t="s">
         <v>621</v>
@@ -7769,7 +7912,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" ht="16">
       <c r="A159" s="11">
         <v>157</v>
       </c>
@@ -7786,7 +7929,7 @@
         <v>41</v>
       </c>
       <c r="F159" s="24" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G159" s="25" t="s">
         <v>621</v>
@@ -7801,7 +7944,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" ht="16">
       <c r="A160" s="11">
         <v>158</v>
       </c>
@@ -7818,7 +7961,7 @@
         <v>41</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>621</v>
@@ -7833,7 +7976,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" ht="16">
       <c r="A161" s="11">
         <v>159</v>
       </c>
@@ -7850,7 +7993,7 @@
         <v>41</v>
       </c>
       <c r="F161" s="24" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G161" s="25" t="s">
         <v>622</v>
@@ -7865,7 +8008,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" ht="16">
       <c r="A162" s="11">
         <v>160</v>
       </c>
@@ -7882,10 +8025,10 @@
         <v>41</v>
       </c>
       <c r="F162" s="24" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G162" s="25" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="I162" s="13" t="s">
         <v>129</v>
@@ -7894,7 +8037,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" ht="16">
       <c r="A163" s="11">
         <v>161</v>
       </c>
@@ -7911,10 +8054,10 @@
         <v>41</v>
       </c>
       <c r="F163" s="24" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G163" s="25" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H163" s="25" t="s">
         <v>650</v>
@@ -7926,7 +8069,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" ht="16">
       <c r="A164" s="11">
         <v>162</v>
       </c>
@@ -7943,10 +8086,10 @@
         <v>41</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H164" s="7"/>
       <c r="I164" s="13" t="s">
@@ -7956,7 +8099,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" ht="16">
       <c r="A165" s="11">
         <v>163</v>
       </c>
@@ -7973,10 +8116,10 @@
         <v>41</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="I165" s="13" t="s">
         <v>129</v>
@@ -7985,7 +8128,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" ht="16">
       <c r="A166" s="11">
         <v>164</v>
       </c>
@@ -8002,10 +8145,10 @@
         <v>41</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H166" s="7" t="s">
         <v>636</v>
@@ -8017,7 +8160,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" ht="16">
       <c r="A167" s="11">
         <v>165</v>
       </c>
@@ -8034,10 +8177,10 @@
         <v>41</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="I167" s="13" t="s">
         <v>129</v>
@@ -8046,7 +8189,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" ht="16">
       <c r="A168" s="11">
         <v>166</v>
       </c>
@@ -8063,10 +8206,10 @@
         <v>41</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H168" s="7"/>
       <c r="I168" s="13" t="s">
@@ -8076,7 +8219,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" ht="16">
       <c r="A169" s="11">
         <v>167</v>
       </c>
@@ -8093,10 +8236,10 @@
         <v>41</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H169" s="7" t="s">
         <v>646</v>
@@ -8108,7 +8251,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" ht="16">
       <c r="A170" s="11">
         <v>168</v>
       </c>
@@ -8125,7 +8268,7 @@
         <v>41</v>
       </c>
       <c r="F170" s="24" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G170" s="25" t="s">
         <v>621</v>
@@ -8140,7 +8283,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" ht="16">
       <c r="A171" s="11">
         <v>169</v>
       </c>
@@ -8157,7 +8300,7 @@
         <v>41</v>
       </c>
       <c r="F171" s="24" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G171" s="25" t="s">
         <v>621</v>
@@ -8170,7 +8313,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" ht="16">
       <c r="A172" s="11">
         <v>170</v>
       </c>
@@ -8187,7 +8330,7 @@
         <v>67</v>
       </c>
       <c r="F172" s="24" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G172" s="25" t="s">
         <v>621</v>
@@ -8199,7 +8342,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" ht="16">
       <c r="A173" s="11">
         <v>171</v>
       </c>
@@ -8216,7 +8359,7 @@
         <v>41</v>
       </c>
       <c r="F173" s="24" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G173" s="25" t="s">
         <v>621</v>
@@ -8228,7 +8371,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" ht="16">
       <c r="A174" s="11">
         <v>172</v>
       </c>
@@ -8245,7 +8388,7 @@
         <v>46</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>614</v>
@@ -8258,7 +8401,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" ht="16">
       <c r="A175" s="11">
         <v>173</v>
       </c>
@@ -8275,7 +8418,7 @@
         <v>41</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G175" s="4" t="s">
         <v>614</v>
@@ -8287,7 +8430,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" ht="16">
       <c r="A176" s="11">
         <v>174</v>
       </c>
@@ -8304,7 +8447,7 @@
         <v>41</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G176" s="22" t="s">
         <v>94</v>
@@ -8319,7 +8462,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" ht="16">
       <c r="A177" s="11">
         <v>175</v>
       </c>
@@ -8336,7 +8479,7 @@
         <v>41</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G177" s="4" t="s">
         <v>82</v>
@@ -8348,7 +8491,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" ht="16">
       <c r="A178" s="11">
         <v>176</v>
       </c>
@@ -8365,7 +8508,7 @@
         <v>41</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>82</v>
@@ -8378,7 +8521,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" ht="16">
       <c r="A179" s="11">
         <v>177</v>
       </c>
@@ -8395,10 +8538,10 @@
         <v>41</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H179" s="7"/>
       <c r="I179" s="13" t="s">
@@ -8408,7 +8551,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" ht="16">
       <c r="A180" s="11">
         <v>178</v>
       </c>
@@ -8425,10 +8568,10 @@
         <v>19</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H180" s="7"/>
       <c r="I180" s="13" t="s">
@@ -8438,7 +8581,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" ht="16">
       <c r="A181" s="11">
         <v>179</v>
       </c>
@@ -8455,10 +8598,10 @@
         <v>19</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H181" s="7"/>
       <c r="I181" s="13" t="s">
@@ -8468,7 +8611,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" ht="16">
       <c r="A182" s="11">
         <v>180</v>
       </c>
@@ -8485,10 +8628,10 @@
         <v>19</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H182" s="7" t="s">
         <v>639</v>
@@ -8500,7 +8643,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" ht="16">
       <c r="A183" s="11">
         <v>181</v>
       </c>
@@ -8517,7 +8660,7 @@
         <v>23</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G183" s="4" t="s">
         <v>623</v>
@@ -8529,7 +8672,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" ht="16">
       <c r="A184" s="11">
         <v>182</v>
       </c>
@@ -8546,10 +8689,10 @@
         <v>23</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H184" s="7"/>
       <c r="I184" s="13" t="s">
@@ -8559,7 +8702,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" ht="16">
       <c r="A185" s="11">
         <v>183</v>
       </c>
@@ -8576,10 +8719,10 @@
         <v>23</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H185" s="7"/>
       <c r="I185" s="13" t="s">
@@ -8589,7 +8732,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" ht="16">
       <c r="A186" s="11">
         <v>184</v>
       </c>
@@ -8606,7 +8749,7 @@
         <v>23</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G186" s="4" t="s">
         <v>123</v>
@@ -8618,7 +8761,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" ht="16">
       <c r="A187" s="11">
         <v>185</v>
       </c>
@@ -8635,7 +8778,7 @@
         <v>23</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G187" s="4" t="s">
         <v>123</v>
@@ -8647,7 +8790,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" ht="16">
       <c r="A188" s="11">
         <v>186</v>
       </c>
@@ -8664,7 +8807,7 @@
         <v>23</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G188" s="22" t="s">
         <v>123</v>
@@ -8677,7 +8820,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" ht="16">
       <c r="A189" s="11">
         <v>187</v>
       </c>
@@ -8694,7 +8837,7 @@
         <v>23</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G189" s="22" t="s">
         <v>226</v>
@@ -8709,7 +8852,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" ht="16">
       <c r="A190" s="11">
         <v>188</v>
       </c>
@@ -8726,7 +8869,7 @@
         <v>23</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G190" s="22" t="s">
         <v>226</v>
@@ -8739,7 +8882,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" ht="16">
       <c r="A191" s="11">
         <v>189</v>
       </c>
@@ -8756,7 +8899,7 @@
         <v>23</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G191" s="4" t="s">
         <v>123</v>
@@ -8768,7 +8911,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" ht="16">
       <c r="A192" s="11">
         <v>190</v>
       </c>
@@ -8785,7 +8928,7 @@
         <v>23</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G192" s="4" t="s">
         <v>155</v>
@@ -8798,7 +8941,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" ht="16">
       <c r="A193" s="11">
         <v>191</v>
       </c>
@@ -8815,7 +8958,7 @@
         <v>23</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G193" s="4" t="s">
         <v>155</v>
@@ -8827,7 +8970,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" ht="16">
       <c r="A194" s="11">
         <v>192</v>
       </c>
@@ -8844,7 +8987,7 @@
         <v>23</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>155</v>
@@ -8856,7 +8999,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" ht="16">
       <c r="A195" s="11">
         <v>193</v>
       </c>
@@ -8873,7 +9016,7 @@
         <v>23</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G195" s="4" t="s">
         <v>155</v>
@@ -8885,7 +9028,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" ht="16">
       <c r="A196" s="11">
         <v>194</v>
       </c>
@@ -8902,7 +9045,7 @@
         <v>23</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G196" s="4" t="s">
         <v>155</v>
@@ -8914,7 +9057,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" ht="16">
       <c r="A197" s="11">
         <v>195</v>
       </c>
@@ -8931,7 +9074,7 @@
         <v>23</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G197" s="4" t="s">
         <v>624</v>
@@ -8943,7 +9086,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" ht="16">
       <c r="A198" s="11">
         <v>196</v>
       </c>
@@ -8960,7 +9103,7 @@
         <v>23</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G198" s="4" t="s">
         <v>624</v>
@@ -8972,7 +9115,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" ht="16">
       <c r="A199" s="11">
         <v>197</v>
       </c>
@@ -8989,7 +9132,7 @@
         <v>23</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G199" s="4" t="s">
         <v>86</v>
@@ -9002,7 +9145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" ht="16">
       <c r="A200" s="11">
         <v>198</v>
       </c>
@@ -9019,7 +9162,7 @@
         <v>23</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G200" s="4" t="s">
         <v>86</v>
@@ -9031,7 +9174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" ht="16">
       <c r="A201" s="11">
         <v>199</v>
       </c>
@@ -9048,7 +9191,7 @@
         <v>23</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G201" s="4" t="s">
         <v>86</v>
@@ -9060,7 +9203,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" ht="16">
       <c r="A202" s="11">
         <v>200</v>
       </c>
@@ -9077,7 +9220,7 @@
         <v>23</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G202" s="4" t="s">
         <v>86</v>
@@ -9090,7 +9233,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" ht="16">
       <c r="A203" s="11">
         <v>201</v>
       </c>
@@ -9107,7 +9250,7 @@
         <v>23</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G203" s="4" t="s">
         <v>618</v>
@@ -9120,7 +9263,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" ht="16">
       <c r="A204" s="11">
         <v>202</v>
       </c>
@@ -9137,7 +9280,7 @@
         <v>23</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G204" s="4" t="s">
         <v>86</v>
@@ -9150,7 +9293,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" ht="16">
       <c r="A205" s="11">
         <v>203</v>
       </c>
@@ -9167,7 +9310,7 @@
         <v>23</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G205" s="4" t="s">
         <v>86</v>
@@ -9180,7 +9323,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" ht="16">
       <c r="A206" s="11">
         <v>204</v>
       </c>
@@ -9197,10 +9340,10 @@
         <v>23</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H206" s="7" t="s">
         <v>639</v>
@@ -9212,7 +9355,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" ht="16">
       <c r="A207" s="11">
         <v>205</v>
       </c>
@@ -9229,10 +9372,10 @@
         <v>23</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H207" s="7"/>
       <c r="I207" s="13" t="s">
@@ -9242,7 +9385,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" ht="16">
       <c r="A208" s="11">
         <v>206</v>
       </c>
@@ -9259,10 +9402,10 @@
         <v>23</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H208" s="7" t="s">
         <v>625</v>
@@ -9274,7 +9417,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" ht="16">
       <c r="A209" s="11">
         <v>207</v>
       </c>
@@ -9291,10 +9434,10 @@
         <v>23</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H209" s="7" t="s">
         <v>625</v>
@@ -9306,7 +9449,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" ht="16">
       <c r="A210" s="11">
         <v>208</v>
       </c>
@@ -9323,10 +9466,10 @@
         <v>23</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H210" s="7"/>
       <c r="I210" s="13" t="s">
@@ -9336,7 +9479,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" ht="16">
       <c r="A211" s="11">
         <v>209</v>
       </c>
@@ -9353,7 +9496,7 @@
         <v>23</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G211" s="4" t="s">
         <v>86</v>
@@ -9365,7 +9508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" ht="16">
       <c r="A212" s="11">
         <v>210</v>
       </c>
@@ -9382,7 +9525,7 @@
         <v>23</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G212" s="4" t="s">
         <v>86</v>
@@ -9394,7 +9537,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" ht="16">
       <c r="A213" s="11">
         <v>211</v>
       </c>
@@ -9411,7 +9554,7 @@
         <v>23</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G213" s="4" t="s">
         <v>86</v>
@@ -9424,7 +9567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" ht="16">
       <c r="A214" s="11">
         <v>212</v>
       </c>
@@ -9441,7 +9584,7 @@
         <v>23</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G214" s="4" t="s">
         <v>86</v>
@@ -9454,7 +9597,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" ht="16">
       <c r="A215" s="11">
         <v>213</v>
       </c>
@@ -9471,7 +9614,7 @@
         <v>23</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G215" s="4" t="s">
         <v>86</v>
@@ -9483,7 +9626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" ht="16">
       <c r="A216" s="11">
         <v>214</v>
       </c>
@@ -9500,7 +9643,7 @@
         <v>5</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H216" s="7"/>
       <c r="I216" s="13" t="s">
@@ -9510,7 +9653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" ht="16">
       <c r="A217" s="11">
         <v>215</v>
       </c>
@@ -9527,7 +9670,7 @@
         <v>5</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I217" s="13" t="s">
         <v>6</v>
@@ -9536,7 +9679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" ht="16">
       <c r="A218" s="11">
         <v>216</v>
       </c>
@@ -9553,7 +9696,7 @@
         <v>5</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I218" s="13" t="s">
         <v>6</v>
@@ -9562,7 +9705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" ht="16">
       <c r="A219" s="11">
         <v>217</v>
       </c>
@@ -9579,7 +9722,7 @@
         <v>5</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I219" s="13" t="s">
         <v>6</v>
@@ -9588,7 +9731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" ht="16">
       <c r="A220" s="11">
         <v>218</v>
       </c>
@@ -9605,7 +9748,7 @@
         <v>5</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I220" s="13" t="s">
         <v>6</v>
@@ -9614,7 +9757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" ht="16">
       <c r="A221" s="11">
         <v>219</v>
       </c>
@@ -9631,7 +9774,7 @@
         <v>5</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I221" s="13" t="s">
         <v>6</v>
@@ -9640,7 +9783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" ht="16">
       <c r="A222" s="11">
         <v>220</v>
       </c>
@@ -9657,7 +9800,7 @@
         <v>5</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I222" s="13" t="s">
         <v>6</v>
@@ -9666,7 +9809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" ht="16">
       <c r="A223" s="11">
         <v>221</v>
       </c>
@@ -9683,7 +9826,7 @@
         <v>5</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I223" s="13" t="s">
         <v>6</v>
@@ -9692,7 +9835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" ht="16">
       <c r="A224" s="11">
         <v>222</v>
       </c>
@@ -9709,7 +9852,7 @@
         <v>5</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I224" s="13" t="s">
         <v>6</v>
@@ -9718,7 +9861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" ht="16">
       <c r="A225" s="11">
         <v>223</v>
       </c>
@@ -9735,7 +9878,7 @@
         <v>5</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="I225" s="13" t="s">
         <v>75</v>
@@ -9744,7 +9887,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10">
       <c r="A226" s="11">
         <v>224</v>
       </c>
@@ -9761,7 +9904,7 @@
         <v>5</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="I226" s="5" t="s">
         <v>71</v>
@@ -9770,7 +9913,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" ht="16">
       <c r="A227" s="11">
         <v>225</v>
       </c>
@@ -9787,7 +9930,7 @@
         <v>5</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I227" s="13" t="s">
         <v>64</v>
@@ -9796,7 +9939,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" ht="16">
       <c r="A228" s="11">
         <v>226</v>
       </c>
@@ -9813,7 +9956,7 @@
         <v>5</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I228" s="13" t="s">
         <v>64</v>
@@ -9822,7 +9965,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="229" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" ht="16">
       <c r="A229" s="11">
         <v>227</v>
       </c>
@@ -9839,7 +9982,7 @@
         <v>46</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I229" s="13" t="s">
         <v>64</v>
@@ -9848,7 +9991,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="230" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" ht="16">
       <c r="A230" s="11">
         <v>228</v>
       </c>
@@ -9865,7 +10008,7 @@
         <v>19</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="I230" s="13" t="s">
         <v>60</v>
@@ -9874,7 +10017,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" ht="16">
       <c r="A231" s="11">
         <v>229</v>
       </c>
@@ -9891,7 +10034,7 @@
         <v>19</v>
       </c>
       <c r="F231" s="6" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="I231" s="13" t="s">
         <v>56</v>
@@ -9900,7 +10043,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" ht="16">
       <c r="A232" s="11">
         <v>230</v>
       </c>
@@ -9917,7 +10060,7 @@
         <v>19</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I232" s="13" t="s">
         <v>17</v>
@@ -9926,7 +10069,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" ht="16">
       <c r="A233" s="11">
         <v>231</v>
       </c>
@@ -9943,7 +10086,7 @@
         <v>19</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I233" s="13" t="s">
         <v>17</v>
@@ -9952,7 +10095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="234" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" ht="16">
       <c r="A234" s="11">
         <v>232</v>
       </c>
@@ -9969,7 +10112,7 @@
         <v>19</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I234" s="13" t="s">
         <v>17</v>
@@ -9978,7 +10121,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" ht="16">
       <c r="A235" s="11">
         <v>233</v>
       </c>
@@ -9995,7 +10138,7 @@
         <v>51</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I235" s="13" t="s">
         <v>17</v>
@@ -10004,7 +10147,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" ht="16">
       <c r="A236" s="11">
         <v>234</v>
       </c>
@@ -10021,7 +10164,7 @@
         <v>51</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I236" s="13" t="s">
         <v>17</v>
@@ -10030,7 +10173,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" ht="16">
       <c r="A237" s="11">
         <v>235</v>
       </c>
@@ -10047,7 +10190,7 @@
         <v>46</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I237" s="13" t="s">
         <v>17</v>
@@ -10056,7 +10199,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="238" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" ht="16">
       <c r="A238" s="11">
         <v>236</v>
       </c>
@@ -10073,7 +10216,7 @@
         <v>41</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I238" s="13" t="s">
         <v>17</v>
@@ -10082,7 +10225,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" ht="16">
       <c r="A239" s="11">
         <v>237</v>
       </c>
@@ -10099,7 +10242,7 @@
         <v>23</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="I239" s="13" t="s">
         <v>20</v>
@@ -10108,7 +10251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="240" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" ht="16">
       <c r="A240" s="11">
         <v>238</v>
       </c>
@@ -10125,7 +10268,7 @@
         <v>5</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I240" s="13" t="s">
         <v>16</v>
@@ -10134,7 +10277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" ht="16">
       <c r="A241" s="11">
         <v>239</v>
       </c>
@@ -10151,7 +10294,7 @@
         <v>23</v>
       </c>
       <c r="F241" s="24" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="I241" s="13" t="s">
         <v>27</v>
@@ -10160,7 +10303,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" ht="16">
       <c r="A242" s="11">
         <v>240</v>
       </c>
@@ -10177,7 +10320,7 @@
         <v>23</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="I242" s="13" t="s">
         <v>24</v>
@@ -10186,7 +10329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" ht="16">
       <c r="A243" s="11">
         <v>241</v>
       </c>
@@ -10203,7 +10346,7 @@
         <v>23</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="I243" s="13" t="s">
         <v>24</v>
@@ -10212,7 +10355,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" ht="16">
       <c r="A244" s="11">
         <v>242</v>
       </c>
@@ -10229,7 +10372,7 @@
         <v>23</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="I244" s="13" t="s">
         <v>33</v>
@@ -10238,7 +10381,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" ht="16">
       <c r="A245" s="11">
         <v>243</v>
       </c>
@@ -10255,7 +10398,7 @@
         <v>23</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="I245" s="13" t="s">
         <v>33</v>
@@ -10264,7 +10407,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" ht="16">
       <c r="A246" s="11">
         <v>244</v>
       </c>
@@ -10281,7 +10424,7 @@
         <v>23</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="I246" s="13" t="s">
         <v>33</v>
@@ -10290,7 +10433,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" ht="16">
       <c r="A247" s="11">
         <v>245</v>
       </c>
@@ -10307,7 +10450,7 @@
         <v>23</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="I247" s="13" t="s">
         <v>33</v>
@@ -10316,7 +10459,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" ht="16">
       <c r="A248" s="11">
         <v>246</v>
       </c>
@@ -10333,7 +10476,7 @@
         <v>23</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="I248" s="13" t="s">
         <v>33</v>
@@ -10342,7 +10485,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" ht="16">
       <c r="A249" s="11">
         <v>247</v>
       </c>
@@ -10359,7 +10502,7 @@
         <v>23</v>
       </c>
       <c r="F249" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="I249" s="13" t="s">
         <v>33</v>
@@ -10368,7 +10511,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" ht="16">
       <c r="A250" s="11">
         <v>248</v>
       </c>
@@ -10385,7 +10528,7 @@
         <v>23</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="I250" s="13" t="s">
         <v>33</v>
@@ -10394,7 +10537,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" ht="16">
       <c r="A251" s="11">
         <v>249</v>
       </c>
@@ -10411,7 +10554,7 @@
         <v>23</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="I251" s="13" t="s">
         <v>33</v>
@@ -10420,7 +10563,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" ht="16">
       <c r="A252" s="11">
         <v>250</v>
       </c>
@@ -10437,7 +10580,7 @@
         <v>23</v>
       </c>
       <c r="F252" s="6" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="I252" s="13" t="s">
         <v>29</v>
@@ -10446,7 +10589,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" ht="16">
       <c r="A253" s="11">
         <v>251</v>
       </c>
@@ -10463,7 +10606,7 @@
         <v>23</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="I253" s="13" t="s">
         <v>29</v>
@@ -10472,7 +10615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" ht="16">
       <c r="A254" s="11">
         <v>252</v>
       </c>
@@ -10489,7 +10632,7 @@
         <v>23</v>
       </c>
       <c r="F254" s="6" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="I254" s="13" t="s">
         <v>29</v>
@@ -10498,7 +10641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" ht="16">
       <c r="A255" s="11">
         <v>253</v>
       </c>
@@ -10515,7 +10658,7 @@
         <v>34</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="I255" s="13" t="s">
         <v>35</v>
@@ -10524,7 +10667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" ht="16">
       <c r="A256" s="11">
         <v>254</v>
       </c>
@@ -10541,7 +10684,7 @@
         <v>34</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I256" s="13" t="s">
         <v>35</v>
@@ -10550,7 +10693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" ht="16">
       <c r="A257" s="11">
         <v>255</v>
       </c>
@@ -10567,7 +10710,7 @@
         <v>34</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I257" s="13" t="s">
         <v>35</v>
@@ -10576,7 +10719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" ht="16">
       <c r="A258" s="11">
         <v>256</v>
       </c>
@@ -10593,7 +10736,7 @@
         <v>34</v>
       </c>
       <c r="F258" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I258" s="13" t="s">
         <v>36</v>
@@ -10602,7 +10745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" ht="16">
       <c r="A259" s="11">
         <v>257</v>
       </c>
@@ -10619,7 +10762,7 @@
         <v>34</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I259" s="13" t="s">
         <v>36</v>
@@ -10628,7 +10771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" ht="16">
       <c r="A260" s="11">
         <v>258</v>
       </c>
@@ -10645,7 +10788,7 @@
         <v>34</v>
       </c>
       <c r="F260" s="5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="I260" s="13" t="s">
         <v>37</v>
@@ -10654,7 +10797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" ht="16">
       <c r="A261" s="11">
         <v>259</v>
       </c>
@@ -10671,7 +10814,7 @@
         <v>34</v>
       </c>
       <c r="F261" s="5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="I261" s="13" t="s">
         <v>37</v>
@@ -10680,7 +10823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" ht="16">
       <c r="A262" s="11">
         <v>260</v>
       </c>
@@ -10697,7 +10840,7 @@
         <v>34</v>
       </c>
       <c r="F262" s="5" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="I262" s="13" t="s">
         <v>38</v>
@@ -10706,7 +10849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10" ht="16">
       <c r="A263" s="11">
         <v>261</v>
       </c>
@@ -10723,7 +10866,7 @@
         <v>34</v>
       </c>
       <c r="F263" s="5" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="I263" s="13" t="s">
         <v>38</v>
@@ -10732,7 +10875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" ht="16">
       <c r="A264" s="11">
         <v>262</v>
       </c>
@@ -10749,7 +10892,7 @@
         <v>34</v>
       </c>
       <c r="F264" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I264" s="13" t="s">
         <v>39</v>
@@ -10758,7 +10901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" ht="16">
       <c r="A265" s="11">
         <v>263</v>
       </c>
@@ -10775,7 +10918,7 @@
         <v>34</v>
       </c>
       <c r="F265" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I265" s="13" t="s">
         <v>39</v>
@@ -10784,7 +10927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" ht="16">
       <c r="A266" s="11">
         <v>264</v>
       </c>
@@ -10801,7 +10944,7 @@
         <v>34</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I266" s="13" t="s">
         <v>39</v>
@@ -10829,9 +10972,9 @@
       <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>323</v>
       </c>
@@ -10840,7 +10983,7 @@
         <v>"MGL1",</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>324</v>
       </c>
@@ -10849,7 +10992,7 @@
         <v>"MGL2",</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>325</v>
       </c>
@@ -10858,7 +11001,7 @@
         <v>"MGL3",</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>326</v>
       </c>
@@ -10867,7 +11010,7 @@
         <v>"PVM2",</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>327</v>
       </c>
@@ -10876,7 +11019,7 @@
         <v>"PVM1",</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>582</v>
       </c>
@@ -10885,7 +11028,7 @@
         <v>"VECV",</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>582</v>
       </c>
@@ -10894,7 +11037,7 @@
         <v>"VECV",</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>582</v>
       </c>
@@ -10903,7 +11046,7 @@
         <v>"VECV",</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>583</v>
       </c>
@@ -10912,7 +11055,7 @@
         <v>"VECC",</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>328</v>
       </c>
@@ -10921,7 +11064,7 @@
         <v>"PER2",</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>329</v>
       </c>
@@ -10930,7 +11073,7 @@
         <v>"PER1",</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>329</v>
       </c>
@@ -10939,7 +11082,7 @@
         <v>"PER1",</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>580</v>
       </c>
@@ -10948,7 +11091,7 @@
         <v>"VSMCA",</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>330</v>
       </c>
@@ -10957,7 +11100,7 @@
         <v>"PER3",</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>584</v>
       </c>
@@ -10966,7 +11109,7 @@
         <v>"VECA",</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>331</v>
       </c>
@@ -10975,7 +11118,7 @@
         <v>"VLMC1",</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>332</v>
       </c>
@@ -10984,7 +11127,7 @@
         <v>"VLMC2",</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>585</v>
       </c>
@@ -10993,7 +11136,7 @@
         <v>"LMC",</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -11002,7 +11145,7 @@
         <v>"ENVLMC",</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>333</v>
       </c>
@@ -11011,7 +11154,7 @@
         <v>"ENTG7",</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>334</v>
       </c>
@@ -11020,7 +11163,7 @@
         <v>"ENTG6",</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>335</v>
       </c>
@@ -11029,7 +11172,7 @@
         <v>"ENTG5",</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>336</v>
       </c>
@@ -11038,7 +11181,7 @@
         <v>"ENTG4",</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>337</v>
       </c>
@@ -11047,7 +11190,7 @@
         <v>"ENTG3",</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>338</v>
       </c>
@@ -11056,7 +11199,7 @@
         <v>"ENTG2",</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>339</v>
       </c>
@@ -11065,7 +11208,7 @@
         <v>"ENTG1",</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>340</v>
       </c>
@@ -11074,7 +11217,7 @@
         <v>"SATG1",</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>341</v>
       </c>
@@ -11083,7 +11226,7 @@
         <v>"SATG2",</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -11092,7 +11235,7 @@
         <v>"SCHW",</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
@@ -11101,7 +11244,7 @@
         <v>"OPC",</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -11110,7 +11253,7 @@
         <v>"OEC",</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -11119,7 +11262,7 @@
         <v>"ACBG",</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
         <v>48</v>
       </c>
@@ -11128,7 +11271,7 @@
         <v>"ACMB",</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>342</v>
       </c>
@@ -11137,7 +11280,7 @@
         <v>"ACNT2",</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
         <v>343</v>
       </c>
@@ -11146,7 +11289,7 @@
         <v>"ACNT1",</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
         <v>343</v>
       </c>
@@ -11155,7 +11298,7 @@
         <v>"ACNT1",</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>54</v>
       </c>
@@ -11164,7 +11307,7 @@
         <v>"ACOB",</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
         <v>344</v>
       </c>
@@ -11173,7 +11316,7 @@
         <v>"ACTE2",</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>345</v>
       </c>
@@ -11182,7 +11325,7 @@
         <v>"ACTE1",</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>57</v>
       </c>
@@ -11191,7 +11334,7 @@
         <v>"RGSZ",</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>61</v>
       </c>
@@ -11200,7 +11343,7 @@
         <v>"RGDG",</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
         <v>63</v>
       </c>
@@ -11209,7 +11352,7 @@
         <v>"EPMB",</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>66</v>
       </c>
@@ -11218,7 +11361,7 @@
         <v>"EPEN",</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -11227,7 +11370,7 @@
         <v>"EPSC",</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
         <v>70</v>
       </c>
@@ -11236,7 +11379,7 @@
         <v>"HYPEN",</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
         <v>74</v>
       </c>
@@ -11245,7 +11388,7 @@
         <v>"CHOR",</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
         <v>346</v>
       </c>
@@ -11254,7 +11397,7 @@
         <v>"MOL3",</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
         <v>347</v>
       </c>
@@ -11263,7 +11406,7 @@
         <v>"MOL2",</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
         <v>347</v>
       </c>
@@ -11272,7 +11415,7 @@
         <v>"MOL2",</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
         <v>347</v>
       </c>
@@ -11281,7 +11424,7 @@
         <v>"MOL2",</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
         <v>347</v>
       </c>
@@ -11290,7 +11433,7 @@
         <v>"MOL2",</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
         <v>348</v>
       </c>
@@ -11299,7 +11442,7 @@
         <v>"MOL1",</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
         <v>348</v>
       </c>
@@ -11308,7 +11451,7 @@
         <v>"MOL1",</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
         <v>348</v>
       </c>
@@ -11317,7 +11460,7 @@
         <v>"MOL1",</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
         <v>349</v>
       </c>
@@ -11326,7 +11469,7 @@
         <v>"MFOL1",</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
         <v>350</v>
       </c>
@@ -11335,7 +11478,7 @@
         <v>"MFOL2",</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
         <v>351</v>
       </c>
@@ -11344,7 +11487,7 @@
         <v>"NFOL1",</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
         <v>352</v>
       </c>
@@ -11353,7 +11496,7 @@
         <v>"NFOL2",</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
         <v>353</v>
       </c>
@@ -11362,7 +11505,7 @@
         <v>"COP2",</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>354</v>
       </c>
@@ -11371,7 +11514,7 @@
         <v>"COP1",</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
         <v>355</v>
       </c>
@@ -11380,7 +11523,7 @@
         <v>"PSNP6",</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
         <v>356</v>
       </c>
@@ -11389,7 +11532,7 @@
         <v>"PSNP5",</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
         <v>357</v>
       </c>
@@ -11398,7 +11541,7 @@
         <v>"PSNP4",</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
         <v>358</v>
       </c>
@@ -11407,7 +11550,7 @@
         <v>"PSNP3",</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
         <v>359</v>
       </c>
@@ -11416,7 +11559,7 @@
         <v>"PSNP2",</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
         <v>360</v>
       </c>
@@ -11425,7 +11568,7 @@
         <v>"PSNP1",</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
         <v>361</v>
       </c>
@@ -11434,7 +11577,7 @@
         <v>"PSNF1",</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
         <v>362</v>
       </c>
@@ -11443,7 +11586,7 @@
         <v>"PSNF2",</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
         <v>363</v>
       </c>
@@ -11452,7 +11595,7 @@
         <v>"PSNF3",</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
         <v>364</v>
       </c>
@@ -11461,7 +11604,7 @@
         <v>"PSPEP1",</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
         <v>365</v>
       </c>
@@ -11470,7 +11613,7 @@
         <v>"PSPEP3",</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
         <v>366</v>
       </c>
@@ -11479,7 +11622,7 @@
         <v>"PSPEP4",</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
         <v>367</v>
       </c>
@@ -11488,7 +11631,7 @@
         <v>"PSPEP2",</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
         <v>368</v>
       </c>
@@ -11497,7 +11640,7 @@
         <v>"PSPEP5",</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
         <v>369</v>
       </c>
@@ -11506,7 +11649,7 @@
         <v>"PSPEP6",</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
         <v>370</v>
       </c>
@@ -11515,7 +11658,7 @@
         <v>"PSPEP7",</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
         <v>371</v>
       </c>
@@ -11524,7 +11667,7 @@
         <v>"PSPEP8",</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
         <v>372</v>
       </c>
@@ -11533,7 +11676,7 @@
         <v>"SYCHO1",</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
         <v>373</v>
       </c>
@@ -11542,7 +11685,7 @@
         <v>"SYCHO2",</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
         <v>374</v>
       </c>
@@ -11551,7 +11694,7 @@
         <v>"SYNOR5",</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
         <v>375</v>
       </c>
@@ -11560,7 +11703,7 @@
         <v>"SYNOR4",</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
         <v>376</v>
       </c>
@@ -11569,7 +11712,7 @@
         <v>"SYNOR3",</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
         <v>377</v>
       </c>
@@ -11578,7 +11721,7 @@
         <v>"SYNOR2",</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
         <v>378</v>
       </c>
@@ -11587,7 +11730,7 @@
         <v>"SYNOR1",</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
         <v>379</v>
       </c>
@@ -11596,7 +11739,7 @@
         <v>"ENT9",</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
         <v>380</v>
       </c>
@@ -11605,7 +11748,7 @@
         <v>"ENT8",</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
         <v>381</v>
       </c>
@@ -11614,7 +11757,7 @@
         <v>"ENT7",</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
         <v>382</v>
       </c>
@@ -11623,7 +11766,7 @@
         <v>"ENT6",</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
         <v>383</v>
       </c>
@@ -11632,7 +11775,7 @@
         <v>"ENT5",</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
         <v>384</v>
       </c>
@@ -11641,7 +11784,7 @@
         <v>"ENT4",</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
         <v>385</v>
       </c>
@@ -11650,7 +11793,7 @@
         <v>"ENT3",</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
         <v>386</v>
       </c>
@@ -11659,7 +11802,7 @@
         <v>"ENT2",</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
         <v>387</v>
       </c>
@@ -11668,7 +11811,7 @@
         <v>"ENT1",</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
         <v>525</v>
       </c>
@@ -11677,7 +11820,7 @@
         <v>"MSN6",</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
         <v>526</v>
       </c>
@@ -11686,7 +11829,7 @@
         <v>"MSN5",</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
         <v>527</v>
       </c>
@@ -11695,7 +11838,7 @@
         <v>"MSN4",</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
         <v>528</v>
       </c>
@@ -11704,7 +11847,7 @@
         <v>"MSN3",</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
         <v>529</v>
       </c>
@@ -11713,7 +11856,7 @@
         <v>"MSN2",</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
         <v>530</v>
       </c>
@@ -11722,7 +11865,7 @@
         <v>"MSN1",</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
         <v>531</v>
       </c>
@@ -11731,7 +11874,7 @@
         <v>"DGGRC2",</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
         <v>532</v>
       </c>
@@ -11740,7 +11883,7 @@
         <v>"DGGRC1",</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
         <v>533</v>
       </c>
@@ -11749,7 +11892,7 @@
         <v>"TEGLU23",</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
         <v>534</v>
       </c>
@@ -11758,7 +11901,7 @@
         <v>"TEGLU24",</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
         <v>535</v>
       </c>
@@ -11767,7 +11910,7 @@
         <v>"TEGLU4",</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
         <v>536</v>
       </c>
@@ -11776,7 +11919,7 @@
         <v>"TEGLU21",</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
         <v>537</v>
       </c>
@@ -11785,7 +11928,7 @@
         <v>"TEGLU22",</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
         <v>538</v>
       </c>
@@ -11805,4 +11948,26 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DD3B63-1112-AA4C-846D-045CDBD2CAE1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="55.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>